--- a/scripts/Set-NTFSAccessRights/NTFS_Permissions_TEST.xlsx
+++ b/scripts/Set-NTFSAccessRights/NTFS_Permissions_TEST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23604"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Git\PowerShell\scripts\Set-NTFSAccessRights\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vancis-my.sharepoint.com/personal/sanderr_vancis_nl/Documents/Documents/Powershell/Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EABFD850-B39F-49A1-B691-D438F0A14138}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{EABFD850-B39F-49A1-B691-D438F0A14138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{5F8E84F5-0063-46F2-9C40-05B8867B7704}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="7740" windowWidth="21600" windowHeight="11385" xr2:uid="{B20347BE-9AED-4B45-A290-A2147FED8CFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B20347BE-9AED-4B45-A290-A2147FED8CFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,44 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Foldernaam</t>
   </si>
   <si>
-    <t>Nivel Medewerkers</t>
-  </si>
-  <si>
-    <t>Directie</t>
-  </si>
-  <si>
-    <t>Directiesecretariaat</t>
-  </si>
-  <si>
-    <t>Directie ondersteuning</t>
-  </si>
-  <si>
-    <t>Afdeling 1 Hoofd</t>
-  </si>
-  <si>
-    <t>Afdeling 2 Hoofd</t>
-  </si>
-  <si>
-    <t>Afdeling 3 Hoofd</t>
-  </si>
-  <si>
     <t>SROOS_TEST</t>
   </si>
   <si>
-    <t>\\localhost\Applicaties\Medewerkers\Folder1</t>
-  </si>
-  <si>
-    <t>\\localhost\Applicaties\Medewerkers\Folder2</t>
-  </si>
-  <si>
-    <t>\\localhost\Applicaties\Medewerkers\Folder3</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -79,6 +49,36 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>035_RBAC_MDW_Directie_GG</t>
+  </si>
+  <si>
+    <t>035_RBAC_MDW_Directiesecretariaat_GG</t>
+  </si>
+  <si>
+    <t>\\ad.nivel.nl\Applicaties\Medewerkers\Folder1</t>
+  </si>
+  <si>
+    <t>\\ad.nivel.nl\Applicaties\Medewerkers\Folder2</t>
+  </si>
+  <si>
+    <t>\\ad.nivel.nl\Applicaties\Medewerkers\Folder3</t>
+  </si>
+  <si>
+    <t>035_RBAC_MDW_Nivel_Medewerkers_GG</t>
+  </si>
+  <si>
+    <t>035_RBAC_MDW_Afdeling 1_Hoofd_GG</t>
+  </si>
+  <si>
+    <t>035_RBAC_MDW_Afdeling_2_Hoofd_GG</t>
+  </si>
+  <si>
+    <t>035_RBAC_MDW_Afdeling 3_Hoofd_GG</t>
+  </si>
+  <si>
+    <t>035_RBAC_MDW_Directie_ondersteuning_GG</t>
   </si>
 </sst>
 </file>
@@ -446,85 +446,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7B375F-2798-4745-BA7F-8999EA0D7500}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="117" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{2C39E2CB-B2B0-453A-A699-73B00010CAB7}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{0E69F33F-8B44-4009-833F-5E7B5B07E202}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{EC62A80A-FE55-489A-9D09-F3BDE69DE827}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>